--- a/timetable/utils/schedule.xlsx
+++ b/timetable/utils/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402BD4D2-3177-4540-A510-A60C24A12ABB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33AEEA-181E-45A7-B551-56A20FEB915C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t xml:space="preserve">                  Понедельник</t>
   </si>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>ауд.</t>
-  </si>
-  <si>
-    <t>str1 
-str2</t>
   </si>
 </sst>
 </file>
@@ -957,7 +953,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,10 +965,8 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
